--- a/opportunity-samples/ACE-Data-Model.xlsx
+++ b/opportunity-samples/ACE-Data-Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mqzhu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mqzhu/Documents/work/PartnerCentral/Data_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DB1361-3D01-D844-BC10-EE0CFDA4F05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D36F934-E5AE-0349-9428-7B76B8A4BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="41500" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fields" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1320">
   <si>
     <t>Field Description</t>
   </si>
@@ -5022,14 +5022,42 @@
   <si>
     <t>SoftwareRevenue.DeliveryModel: "Contract"</t>
   </si>
+  <si>
+    <t>Update-Action Required</t>
+  </si>
+  <si>
+    <t>Update-Approved</t>
+  </si>
+  <si>
+    <t>Update-After Launched</t>
+  </si>
+  <si>
+    <t>Yes (ISV)</t>
+  </si>
+  <si>
+    <t>Yes (From FVO-CoSell only)</t>
+  </si>
+  <si>
+    <t>Yes (ISV+SaaS)</t>
+  </si>
+  <si>
+    <t>Yes (SRRP)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5121,6 +5149,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5417,210 +5451,212 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5903,11 +5939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P75" sqref="P75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="106.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5928,10 +5964,13 @@
     <col min="14" max="14" width="89.6640625" style="22" customWidth="1"/>
     <col min="15" max="15" width="28" style="22" customWidth="1"/>
     <col min="16" max="16" width="92.83203125" style="22" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="22"/>
+    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1640625" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="17" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="17" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1157</v>
       </c>
@@ -5976,8 +6015,17 @@
       <c r="P1" s="31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="68" t="s">
+        <v>1313</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>1314</v>
+      </c>
+      <c r="S1" s="69" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>192</v>
       </c>
@@ -6018,8 +6066,11 @@
       <c r="P2" s="23" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -6056,8 +6107,11 @@
       <c r="P3" s="24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -6096,8 +6150,15 @@
       <c r="P4" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>406</v>
+      </c>
+      <c r="R4" t="s">
+        <v>406</v>
+      </c>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -6138,8 +6199,13 @@
       <c r="P5" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>406</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -6180,8 +6246,13 @@
       <c r="P6" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>406</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -6222,8 +6293,13 @@
       <c r="P7" s="24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>406</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -6264,8 +6340,15 @@
       <c r="P8" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>406</v>
+      </c>
+      <c r="R8" t="s">
+        <v>406</v>
+      </c>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -6304,8 +6387,13 @@
       <c r="P9" s="24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q9"/>
+      <c r="R9" t="s">
+        <v>406</v>
+      </c>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -6342,8 +6430,11 @@
       <c r="P10" s="24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -6384,8 +6475,13 @@
       <c r="P11" s="24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q11"/>
+      <c r="R11" t="s">
+        <v>406</v>
+      </c>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -6426,8 +6522,13 @@
       <c r="P12" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q12"/>
+      <c r="R12" t="s">
+        <v>406</v>
+      </c>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -6466,8 +6567,13 @@
       <c r="P13" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q13"/>
+      <c r="R13" t="s">
+        <v>406</v>
+      </c>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>55</v>
       </c>
@@ -6506,8 +6612,13 @@
       <c r="P14" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>406</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>407</v>
       </c>
@@ -6548,8 +6659,13 @@
       <c r="P15" s="24" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q15"/>
+      <c r="R15" t="s">
+        <v>406</v>
+      </c>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>408</v>
       </c>
@@ -6590,8 +6706,13 @@
       <c r="P16" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q16"/>
+      <c r="R16" t="s">
+        <v>406</v>
+      </c>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>409</v>
       </c>
@@ -6632,8 +6753,13 @@
       <c r="P17" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q17"/>
+      <c r="R17" t="s">
+        <v>406</v>
+      </c>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>410</v>
       </c>
@@ -6674,8 +6800,13 @@
       <c r="P18" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q18"/>
+      <c r="R18" t="s">
+        <v>406</v>
+      </c>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>411</v>
       </c>
@@ -6716,8 +6847,13 @@
       <c r="P19" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q19"/>
+      <c r="R19" t="s">
+        <v>406</v>
+      </c>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>340</v>
       </c>
@@ -6758,8 +6894,11 @@
       <c r="P20" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>342</v>
       </c>
@@ -6798,8 +6937,11 @@
       <c r="P21" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>412</v>
       </c>
@@ -6838,8 +6980,11 @@
       <c r="P22" s="23" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>338</v>
       </c>
@@ -6880,8 +7025,11 @@
       <c r="P23" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>69</v>
       </c>
@@ -6918,8 +7066,11 @@
       <c r="P24" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>71</v>
       </c>
@@ -6960,8 +7111,13 @@
       <c r="P25" s="24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q25"/>
+      <c r="R25" t="s">
+        <v>406</v>
+      </c>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>71</v>
       </c>
@@ -7000,8 +7156,11 @@
         <v>17</v>
       </c>
       <c r="P26" s="23"/>
-    </row>
-    <row r="27" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>75</v>
       </c>
@@ -7042,8 +7201,13 @@
       <c r="P27" s="24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q27"/>
+      <c r="R27" t="s">
+        <v>406</v>
+      </c>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>77</v>
       </c>
@@ -7082,8 +7246,11 @@
       <c r="P28" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>79</v>
       </c>
@@ -7124,8 +7291,11 @@
       <c r="P29" s="24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>311</v>
       </c>
@@ -7166,8 +7336,11 @@
       <c r="P30" s="24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>82</v>
       </c>
@@ -7206,8 +7379,11 @@
       <c r="P31" s="24" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>309</v>
       </c>
@@ -7248,8 +7424,13 @@
       <c r="P32" s="23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q32"/>
+      <c r="R32" t="s">
+        <v>406</v>
+      </c>
+      <c r="S32"/>
+    </row>
+    <row r="33" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>309</v>
       </c>
@@ -7284,8 +7465,11 @@
         <v>17</v>
       </c>
       <c r="P33" s="23"/>
-    </row>
-    <row r="34" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+    </row>
+    <row r="34" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
@@ -7326,8 +7510,15 @@
       <c r="P34" s="23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>406</v>
+      </c>
+      <c r="R34" t="s">
+        <v>406</v>
+      </c>
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>85</v>
       </c>
@@ -7360,8 +7551,11 @@
         <v>11</v>
       </c>
       <c r="P35" s="23"/>
-    </row>
-    <row r="36" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>325</v>
       </c>
@@ -7402,8 +7596,13 @@
       <c r="P36" s="24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q36"/>
+      <c r="R36" t="s">
+        <v>406</v>
+      </c>
+      <c r="S36"/>
+    </row>
+    <row r="37" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>90</v>
       </c>
@@ -7442,8 +7641,13 @@
       <c r="P37" s="24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q37"/>
+      <c r="R37" t="s">
+        <v>406</v>
+      </c>
+      <c r="S37"/>
+    </row>
+    <row r="38" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>95</v>
       </c>
@@ -7484,8 +7688,13 @@
       <c r="P38" s="24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q38"/>
+      <c r="R38" t="s">
+        <v>406</v>
+      </c>
+      <c r="S38"/>
+    </row>
+    <row r="39" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>97</v>
       </c>
@@ -7526,8 +7735,13 @@
       <c r="P39" s="24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q39"/>
+      <c r="R39" t="s">
+        <v>406</v>
+      </c>
+      <c r="S39"/>
+    </row>
+    <row r="40" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>100</v>
       </c>
@@ -7568,8 +7782,13 @@
       <c r="P40" s="24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q40"/>
+      <c r="R40" t="s">
+        <v>406</v>
+      </c>
+      <c r="S40"/>
+    </row>
+    <row r="41" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>101</v>
       </c>
@@ -7610,8 +7829,11 @@
       <c r="P41" s="24" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+    </row>
+    <row r="42" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>103</v>
       </c>
@@ -7652,8 +7874,11 @@
       <c r="P42" s="24" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+    </row>
+    <row r="43" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>103</v>
       </c>
@@ -7686,8 +7911,11 @@
         <v>196</v>
       </c>
       <c r="P43" s="23"/>
-    </row>
-    <row r="44" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+    </row>
+    <row r="44" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>107</v>
       </c>
@@ -7728,8 +7956,13 @@
       <c r="P44" s="23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q44"/>
+      <c r="R44" t="s">
+        <v>406</v>
+      </c>
+      <c r="S44"/>
+    </row>
+    <row r="45" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>107</v>
       </c>
@@ -7766,8 +7999,11 @@
         <v>17</v>
       </c>
       <c r="P45" s="23"/>
-    </row>
-    <row r="46" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+    </row>
+    <row r="46" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>110</v>
       </c>
@@ -7806,8 +8042,13 @@
       <c r="P46" s="23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q46"/>
+      <c r="R46" t="s">
+        <v>406</v>
+      </c>
+      <c r="S46"/>
+    </row>
+    <row r="47" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>110</v>
       </c>
@@ -7844,8 +8085,11 @@
         <v>17</v>
       </c>
       <c r="P47" s="23"/>
-    </row>
-    <row r="48" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+    </row>
+    <row r="48" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>112</v>
       </c>
@@ -7884,8 +8128,13 @@
       <c r="P48" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q48"/>
+      <c r="R48" t="s">
+        <v>406</v>
+      </c>
+      <c r="S48"/>
+    </row>
+    <row r="49" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -7922,8 +8171,11 @@
         <v>17</v>
       </c>
       <c r="P49" s="23"/>
-    </row>
-    <row r="50" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+    </row>
+    <row r="50" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>114</v>
       </c>
@@ -7964,8 +8216,13 @@
       <c r="P50" s="23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q50"/>
+      <c r="R50" t="s">
+        <v>406</v>
+      </c>
+      <c r="S50"/>
+    </row>
+    <row r="51" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>116</v>
       </c>
@@ -8004,8 +8261,15 @@
       <c r="P51" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q51"/>
+      <c r="R51" t="s">
+        <v>406</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>195</v>
       </c>
@@ -8046,8 +8310,11 @@
       <c r="P52" s="23" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+    </row>
+    <row r="53" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>123</v>
       </c>
@@ -8088,8 +8355,13 @@
       <c r="P53" s="24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q53"/>
+      <c r="R53" t="s">
+        <v>1317</v>
+      </c>
+      <c r="S53"/>
+    </row>
+    <row r="54" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>125</v>
       </c>
@@ -8130,8 +8402,15 @@
       <c r="P54" s="24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q54"/>
+      <c r="R54" t="s">
+        <v>406</v>
+      </c>
+      <c r="S54" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>128</v>
       </c>
@@ -8170,8 +8449,11 @@
       <c r="P55" s="23" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+    </row>
+    <row r="56" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>131</v>
       </c>
@@ -8212,8 +8494,13 @@
       <c r="P56" s="23" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q56"/>
+      <c r="R56" t="s">
+        <v>406</v>
+      </c>
+      <c r="S56"/>
+    </row>
+    <row r="57" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>133</v>
       </c>
@@ -8254,8 +8541,13 @@
       <c r="P57" s="24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
+        <v>406</v>
+      </c>
+      <c r="R57"/>
+      <c r="S57"/>
+    </row>
+    <row r="58" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>136</v>
       </c>
@@ -8298,8 +8590,13 @@
       <c r="P58" s="24" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q58"/>
+      <c r="R58" t="s">
+        <v>406</v>
+      </c>
+      <c r="S58"/>
+    </row>
+    <row r="59" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>140</v>
       </c>
@@ -8342,8 +8639,15 @@
       <c r="P59" s="24" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q59"/>
+      <c r="R59" t="s">
+        <v>406</v>
+      </c>
+      <c r="S59" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>142</v>
       </c>
@@ -8382,8 +8686,15 @@
       <c r="P60" s="24" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q60" t="s">
+        <v>406</v>
+      </c>
+      <c r="R60" t="s">
+        <v>406</v>
+      </c>
+      <c r="S60"/>
+    </row>
+    <row r="61" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>144</v>
       </c>
@@ -8424,8 +8735,13 @@
       <c r="P61" s="24" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q61" t="s">
+        <v>406</v>
+      </c>
+      <c r="R61"/>
+      <c r="S61"/>
+    </row>
+    <row r="62" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>147</v>
       </c>
@@ -8464,8 +8780,11 @@
       <c r="P62" s="24" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+    </row>
+    <row r="63" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>149</v>
       </c>
@@ -8506,8 +8825,13 @@
       <c r="P63" s="24" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>406</v>
+      </c>
+      <c r="R63"/>
+      <c r="S63"/>
+    </row>
+    <row r="64" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>153</v>
       </c>
@@ -8546,8 +8870,13 @@
       <c r="P64" s="24" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>406</v>
+      </c>
+      <c r="R64"/>
+      <c r="S64"/>
+    </row>
+    <row r="65" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>156</v>
       </c>
@@ -8588,8 +8917,13 @@
       <c r="P65" s="24" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q65"/>
+      <c r="R65" t="s">
+        <v>406</v>
+      </c>
+      <c r="S65"/>
+    </row>
+    <row r="66" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>162</v>
       </c>
@@ -8630,8 +8964,13 @@
       <c r="P66" s="24" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q66"/>
+      <c r="R66" t="s">
+        <v>406</v>
+      </c>
+      <c r="S66"/>
+    </row>
+    <row r="67" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>166</v>
       </c>
@@ -8672,8 +9011,15 @@
       <c r="P67" s="24" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q67"/>
+      <c r="R67" t="s">
+        <v>406</v>
+      </c>
+      <c r="S67" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>168</v>
       </c>
@@ -8716,8 +9062,13 @@
       <c r="P68" s="24" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q68"/>
+      <c r="R68" t="s">
+        <v>406</v>
+      </c>
+      <c r="S68"/>
+    </row>
+    <row r="69" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>169</v>
       </c>
@@ -8756,8 +9107,11 @@
       <c r="P69" s="23" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+    </row>
+    <row r="70" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>351</v>
       </c>
@@ -8798,8 +9152,13 @@
       <c r="P70" s="23" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q70"/>
+      <c r="R70" t="s">
+        <v>406</v>
+      </c>
+      <c r="S70"/>
+    </row>
+    <row r="71" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>174</v>
       </c>
@@ -8842,8 +9201,13 @@
       <c r="P71" s="23" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q71"/>
+      <c r="R71" t="s">
+        <v>406</v>
+      </c>
+      <c r="S71"/>
+    </row>
+    <row r="72" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>179</v>
       </c>
@@ -8884,8 +9248,13 @@
       <c r="P72" s="24" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q72"/>
+      <c r="R72" t="s">
+        <v>406</v>
+      </c>
+      <c r="S72"/>
+    </row>
+    <row r="73" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>414</v>
       </c>
@@ -8926,8 +9295,11 @@
       <c r="P73" s="23" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+    </row>
+    <row r="74" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>415</v>
       </c>
@@ -8968,8 +9340,11 @@
       <c r="P74" s="23" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+    </row>
+    <row r="75" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>181</v>
       </c>
@@ -9012,8 +9387,15 @@
       <c r="P75" s="67" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q75"/>
+      <c r="R75" t="s">
+        <v>1318</v>
+      </c>
+      <c r="S75" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>182</v>
       </c>
@@ -9054,8 +9436,15 @@
       <c r="P76" s="52" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q76"/>
+      <c r="R76" t="s">
+        <v>1318</v>
+      </c>
+      <c r="S76" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>185</v>
       </c>
@@ -9096,8 +9485,15 @@
       <c r="P77" s="23" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q77"/>
+      <c r="R77" t="s">
+        <v>1318</v>
+      </c>
+      <c r="S77" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>188</v>
       </c>
@@ -9138,8 +9534,15 @@
       <c r="P78" s="23" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q78"/>
+      <c r="R78" t="s">
+        <v>406</v>
+      </c>
+      <c r="S78" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>190</v>
       </c>
@@ -9182,8 +9585,15 @@
       <c r="P79" s="23" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q79"/>
+      <c r="R79" t="s">
+        <v>1318</v>
+      </c>
+      <c r="S79" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>9</v>
       </c>
@@ -9207,8 +9617,11 @@
       <c r="P80" s="24" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+    </row>
+    <row r="81" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>1023</v>
       </c>
@@ -9243,8 +9656,11 @@
         <v>196</v>
       </c>
       <c r="P81" s="23"/>
-    </row>
-    <row r="82" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+    </row>
+    <row r="82" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>194</v>
       </c>
@@ -9268,8 +9684,11 @@
       <c r="P82" s="24" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+    </row>
+    <row r="83" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>193</v>
       </c>
@@ -9297,8 +9716,11 @@
       <c r="P83" s="24" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+    </row>
+    <row r="84" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>119</v>
       </c>
@@ -9335,8 +9757,15 @@
       <c r="P84" s="24" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q84" t="s">
+        <v>406</v>
+      </c>
+      <c r="R84" t="s">
+        <v>406</v>
+      </c>
+      <c r="S84"/>
+    </row>
+    <row r="85" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>416</v>
       </c>
@@ -9371,8 +9800,11 @@
         <v>17</v>
       </c>
       <c r="P85" s="23"/>
-    </row>
-    <row r="86" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+    </row>
+    <row r="86" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>417</v>
       </c>
@@ -9409,8 +9841,11 @@
       <c r="P86" s="23" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+    </row>
+    <row r="87" spans="1:19" s="14" customFormat="1" ht="106.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
         <v>418</v>
       </c>
@@ -9447,6 +9882,9 @@
         <v>196</v>
       </c>
       <c r="P87" s="47"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
     </row>
   </sheetData>
   <hyperlinks>
